--- a/Result_files/V3_Bids_2020-06-22_2020-06-28.xlsx
+++ b/Result_files/V3_Bids_2020-06-22_2020-06-28.xlsx
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.337</v>
+        <v>17.714</v>
       </c>
       <c r="H2" t="n">
         <v>47.8</v>
@@ -560,7 +560,7 @@
         <v>11.55099999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>-497.0701597134644</v>
+        <v>-497.0701491598593</v>
       </c>
       <c r="K2" t="n">
         <v>26.59999</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>186.1443421366273</v>
+        <v>186.4125446261936</v>
       </c>
       <c r="K3" t="n">
         <v>22.75</v>
@@ -654,7 +654,7 @@
         <v>141.03</v>
       </c>
       <c r="D4" t="n">
-        <v>47.8</v>
+        <v>38.3</v>
       </c>
       <c r="E4" t="n">
         <v>0.26</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>178.8231242812414</v>
+        <v>599.3787949305545</v>
       </c>
       <c r="K4" t="n">
         <v>21.7</v>
@@ -710,7 +710,7 @@
         <v>141.03</v>
       </c>
       <c r="D5" t="n">
-        <v>47.8</v>
+        <v>38.6</v>
       </c>
       <c r="E5" t="n">
         <v>0.26</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>83.40047349254367</v>
+        <v>1648.484470708166</v>
       </c>
       <c r="K5" t="n">
         <v>19.43</v>
@@ -766,7 +766,7 @@
         <v>141.03</v>
       </c>
       <c r="D6" t="n">
-        <v>19.3</v>
+        <v>47.8</v>
       </c>
       <c r="E6" t="n">
         <v>0.26</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-163.1270506955442</v>
+        <v>1880.971081654562</v>
       </c>
       <c r="K6" t="n">
         <v>18.959999</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-416.657040782859</v>
+        <v>803.6544027627496</v>
       </c>
       <c r="K7" t="n">
         <v>18.959999</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>942.8984563033321</v>
+        <v>289.7927540892064</v>
       </c>
       <c r="K8" t="n">
         <v>21.559999</v>
@@ -940,19 +940,19 @@
         <v>0.4</v>
       </c>
       <c r="F9" t="n">
-        <v>12.2</v>
+        <v>29.1</v>
       </c>
       <c r="G9" t="n">
         <v>17.49799999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>35.6</v>
+        <v>18.6</v>
       </c>
       <c r="I9" t="n">
         <v>6.73699999999991</v>
       </c>
       <c r="J9" t="n">
-        <v>-866.9464902275018</v>
+        <v>-946.3848188199994</v>
       </c>
       <c r="K9" t="n">
         <v>26.59999</v>
@@ -996,19 +996,19 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>47.8</v>
+        <v>42.3</v>
       </c>
       <c r="G10" t="n">
         <v>17.49799999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>15.5</v>
+        <v>6.73699999999991</v>
       </c>
       <c r="J10" t="n">
-        <v>-1654.412785745765</v>
+        <v>-1009.317008250001</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1064,7 +1064,7 @@
         <v>14.571</v>
       </c>
       <c r="J11" t="n">
-        <v>-4069.485888129642</v>
+        <v>-1271.060633172787</v>
       </c>
       <c r="K11" t="n">
         <v>28.959999</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-3115.403823625262</v>
+        <v>-1942.764604133241</v>
       </c>
       <c r="K12" t="n">
         <v>26.59999</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-2766.00578339194</v>
+        <v>-2501.112501249429</v>
       </c>
       <c r="K13" t="n">
         <v>25.51</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-3673.800070081524</v>
+        <v>-2240.815293245774</v>
       </c>
       <c r="K14" t="n">
         <v>23.889999</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-3321.553022647127</v>
+        <v>-1015.649844034738</v>
       </c>
       <c r="K15" t="n">
         <v>21.99</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-2901.014744155846</v>
+        <v>-488.4716297684154</v>
       </c>
       <c r="K16" t="n">
         <v>20.5</v>
@@ -1400,7 +1400,7 @@
         <v>13.636</v>
       </c>
       <c r="J17" t="n">
-        <v>-2871.127009958826</v>
+        <v>-684.341398539282</v>
       </c>
       <c r="K17" t="n">
         <v>19.1</v>
@@ -1456,7 +1456,7 @@
         <v>14.905</v>
       </c>
       <c r="J18" t="n">
-        <v>-2446.500488618047</v>
+        <v>-775.2777354028551</v>
       </c>
       <c r="K18" t="n">
         <v>19.280001</v>
@@ -1500,19 +1500,19 @@
         <v>0.4</v>
       </c>
       <c r="F19" t="n">
-        <v>47.8</v>
+        <v>13.5</v>
       </c>
       <c r="G19" t="n">
         <v>14.416</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>34.3</v>
       </c>
       <c r="I19" t="n">
-        <v>14.905</v>
+        <v>6.269999999999925</v>
       </c>
       <c r="J19" t="n">
-        <v>-1883.942747490011</v>
+        <v>-793.8533368662808</v>
       </c>
       <c r="K19" t="n">
         <v>23.7</v>
@@ -1556,19 +1556,19 @@
         <v>0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>47.8</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="G20" t="n">
         <v>14.416</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="I20" t="n">
-        <v>14.905</v>
+        <v>6.449999999999989</v>
       </c>
       <c r="J20" t="n">
-        <v>-898.5365829842528</v>
+        <v>-778.4276197698518</v>
       </c>
       <c r="K20" t="n">
         <v>26.8</v>
@@ -1612,19 +1612,19 @@
         <v>0.4</v>
       </c>
       <c r="F21" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>14.416</v>
+        <v>14.423</v>
       </c>
       <c r="H21" t="n">
-        <v>33.7</v>
+        <v>47.8</v>
       </c>
       <c r="I21" t="n">
         <v>6.449999999999989</v>
       </c>
       <c r="J21" t="n">
-        <v>-793.472389168398</v>
+        <v>-370.651431526112</v>
       </c>
       <c r="K21" t="n">
         <v>30.65</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.56</v>
+        <v>14.423</v>
       </c>
       <c r="H22" t="n">
         <v>47.8</v>
@@ -1680,7 +1680,7 @@
         <v>6.449999999999989</v>
       </c>
       <c r="J22" t="n">
-        <v>-583.5530556830365</v>
+        <v>-363.1947257226581</v>
       </c>
       <c r="K22" t="n">
         <v>30.17</v>
@@ -1736,7 +1736,7 @@
         <v>10.31099999999998</v>
       </c>
       <c r="J23" t="n">
-        <v>-414.440288995973</v>
+        <v>-414.440130771071</v>
       </c>
       <c r="K23" t="n">
         <v>27.9</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>14.423</v>
+        <v>15.409</v>
       </c>
       <c r="H24" t="n">
         <v>47.8</v>
@@ -1792,7 +1792,7 @@
         <v>10.31099999999998</v>
       </c>
       <c r="J24" t="n">
-        <v>-418.8035005981974</v>
+        <v>-418.8034794122667</v>
       </c>
       <c r="K24" t="n">
         <v>26.51</v>
@@ -1848,7 +1848,7 @@
         <v>13.63599999999991</v>
       </c>
       <c r="J25" t="n">
-        <v>-495.7499612050569</v>
+        <v>-495.7499416350308</v>
       </c>
       <c r="K25" t="n">
         <v>23.809999</v>
@@ -1904,7 +1904,7 @@
         <v>10.55099999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1342.582406654722</v>
+        <v>1342.58240695264</v>
       </c>
       <c r="K26" t="n">
         <v>26.59999</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>256.8669438875717</v>
+        <v>1858.953173397358</v>
       </c>
       <c r="K27" t="n">
         <v>22.75</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1818.221056948535</v>
+        <v>1818.268742091624</v>
       </c>
       <c r="K28" t="n">
         <v>21.7</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1647.575898845437</v>
+        <v>1688.172557300197</v>
       </c>
       <c r="K29" t="n">
         <v>19.43</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1283.755863081627</v>
+        <v>1819.183214898958</v>
       </c>
       <c r="K30" t="n">
         <v>18.959999</v>
@@ -2184,7 +2184,7 @@
         <v>16.036</v>
       </c>
       <c r="J31" t="n">
-        <v>-779.196139703634</v>
+        <v>738.7323230825149</v>
       </c>
       <c r="K31" t="n">
         <v>18.959999</v>
@@ -2240,7 +2240,7 @@
         <v>16.036</v>
       </c>
       <c r="J32" t="n">
-        <v>-1713.662034784171</v>
+        <v>-420.8121184683676</v>
       </c>
       <c r="K32" t="n">
         <v>21.559999</v>
@@ -2296,7 +2296,7 @@
         <v>15.5</v>
       </c>
       <c r="J33" t="n">
-        <v>-3017.059109221515</v>
+        <v>-1327.998509868062</v>
       </c>
       <c r="K33" t="n">
         <v>26.59999</v>
@@ -2352,7 +2352,7 @@
         <v>15.5</v>
       </c>
       <c r="J34" t="n">
-        <v>-4508.758443646231</v>
+        <v>-1813.030995587354</v>
       </c>
       <c r="K34" t="n">
         <v>30</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-4288.490936841223</v>
+        <v>-1216.435014100102</v>
       </c>
       <c r="K35" t="n">
         <v>28.959999</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-4437.037009294074</v>
+        <v>-2711.293371276522</v>
       </c>
       <c r="K36" t="n">
         <v>26.59999</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-4706.626623562765</v>
+        <v>-2439.067045500147</v>
       </c>
       <c r="K37" t="n">
         <v>25.51</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-4298.21664608368</v>
+        <v>-3100.517153051895</v>
       </c>
       <c r="K38" t="n">
         <v>23.889999</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-3601.018790817954</v>
+        <v>-1936.952617486302</v>
       </c>
       <c r="K39" t="n">
         <v>21.99</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-3064.244599276904</v>
+        <v>-1178.399486133637</v>
       </c>
       <c r="K40" t="n">
         <v>20.5</v>
@@ -2744,7 +2744,7 @@
         <v>13.636</v>
       </c>
       <c r="J41" t="n">
-        <v>-3071.269946431128</v>
+        <v>-1104.163321788777</v>
       </c>
       <c r="K41" t="n">
         <v>19.1</v>
@@ -2800,7 +2800,7 @@
         <v>13.636</v>
       </c>
       <c r="J42" t="n">
-        <v>-2428.047883930336</v>
+        <v>-336.8827195867706</v>
       </c>
       <c r="K42" t="n">
         <v>19.280001</v>
@@ -2844,19 +2844,19 @@
         <v>0.4</v>
       </c>
       <c r="F43" t="n">
-        <v>47.8</v>
+        <v>19.8</v>
       </c>
       <c r="G43" t="n">
         <v>14.416</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I43" t="n">
-        <v>13.636</v>
+        <v>12.00599999999991</v>
       </c>
       <c r="J43" t="n">
-        <v>-1793.561817661475</v>
+        <v>-791.8109469824724</v>
       </c>
       <c r="K43" t="n">
         <v>23.7</v>
@@ -2900,19 +2900,19 @@
         <v>0.4</v>
       </c>
       <c r="F44" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>14.416</v>
+        <v>14.422</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I44" t="n">
-        <v>11.82</v>
+        <v>11.81599999999997</v>
       </c>
       <c r="J44" t="n">
-        <v>-878.1445776248704</v>
+        <v>-714.2902844425445</v>
       </c>
       <c r="K44" t="n">
         <v>26.8</v>
@@ -2956,19 +2956,19 @@
         <v>0.4</v>
       </c>
       <c r="F45" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.416</v>
+        <v>14.422</v>
       </c>
       <c r="H45" t="n">
-        <v>34.4</v>
+        <v>47.8</v>
       </c>
       <c r="I45" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J45" t="n">
-        <v>-772.9901248400002</v>
+        <v>-331.3180964544275</v>
       </c>
       <c r="K45" t="n">
         <v>30.65</v>
@@ -3024,7 +3024,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J46" t="n">
-        <v>-526.0304986936112</v>
+        <v>-326.7995973700405</v>
       </c>
       <c r="K46" t="n">
         <v>30.17</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>15.409</v>
+        <v>14.422</v>
       </c>
       <c r="H47" t="n">
         <v>47.8</v>
@@ -3080,7 +3080,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>-366.5655161822259</v>
+        <v>-366.5655161822285</v>
       </c>
       <c r="K47" t="n">
         <v>27.9</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>15.409</v>
+        <v>14.422</v>
       </c>
       <c r="H48" t="n">
         <v>47.8</v>
@@ -3136,7 +3136,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>-371.1039347813185</v>
+        <v>-371.1039347813166</v>
       </c>
       <c r="K48" t="n">
         <v>26.51</v>
@@ -3180,19 +3180,19 @@
         <v>0.26</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G49" t="n">
-        <v>15.409</v>
+        <v>14.416</v>
       </c>
       <c r="H49" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>12.39699999999999</v>
+        <v>12.531</v>
       </c>
       <c r="J49" t="n">
-        <v>-405.8522152949449</v>
+        <v>1448.83924859205</v>
       </c>
       <c r="K49" t="n">
         <v>23.809999</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>204.4917150908982</v>
+        <v>204.5215062179059</v>
       </c>
       <c r="K51" t="n">
         <v>18.879999</v>
@@ -3342,7 +3342,7 @@
         <v>142.84</v>
       </c>
       <c r="D52" t="n">
-        <v>47.8</v>
+        <v>38.1</v>
       </c>
       <c r="E52" t="n">
         <v>0.26</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>194.5845830865472</v>
+        <v>1694.751931315819</v>
       </c>
       <c r="K52" t="n">
         <v>18.219999</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>128.9845185221134</v>
+        <v>2049.245270213839</v>
       </c>
       <c r="K53" t="n">
         <v>19.7</v>
@@ -3454,7 +3454,7 @@
         <v>142.84</v>
       </c>
       <c r="D54" t="n">
-        <v>8.700000000000001</v>
+        <v>47.8</v>
       </c>
       <c r="E54" t="n">
         <v>0.26</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-157.5839626384188</v>
+        <v>2024.862349712441</v>
       </c>
       <c r="K54" t="n">
         <v>19.43</v>
@@ -3516,19 +3516,19 @@
         <v>0.26</v>
       </c>
       <c r="F55" t="n">
-        <v>41.5</v>
+        <v>47.8</v>
       </c>
       <c r="G55" t="n">
         <v>18.07900000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>6.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>14.62999999999991</v>
+        <v>14.631</v>
       </c>
       <c r="J55" t="n">
-        <v>-1002.863354827919</v>
+        <v>1144.853561063374</v>
       </c>
       <c r="K55" t="n">
         <v>22.360001</v>
@@ -3572,19 +3572,19 @@
         <v>0.4</v>
       </c>
       <c r="F56" t="n">
-        <v>47.8</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="G56" t="n">
         <v>18.07900000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="I56" t="n">
         <v>14.49399999999997</v>
       </c>
       <c r="J56" t="n">
-        <v>-1791.983816284173</v>
+        <v>-900.4944249916211</v>
       </c>
       <c r="K56" t="n">
         <v>27.92</v>
@@ -3640,7 +3640,7 @@
         <v>13.851</v>
       </c>
       <c r="J57" t="n">
-        <v>-3265.515209755963</v>
+        <v>-1141.342138502239</v>
       </c>
       <c r="K57" t="n">
         <v>37.200001</v>
@@ -3696,7 +3696,7 @@
         <v>13.851</v>
       </c>
       <c r="J58" t="n">
-        <v>-4414.120068951042</v>
+        <v>-1964.211961758533</v>
       </c>
       <c r="K58" t="n">
         <v>30.92</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-4103.512498105914</v>
+        <v>-1532.617450678737</v>
       </c>
       <c r="K59" t="n">
         <v>24.4</v>
@@ -3790,7 +3790,7 @@
         <v>142.84</v>
       </c>
       <c r="D60" t="n">
-        <v>47.8</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>0.4</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>-4417.233772600066</v>
+        <v>-172.1289663025549</v>
       </c>
       <c r="K60" t="n">
         <v>22.35</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-4300.831332969977</v>
+        <v>-1648.637090476523</v>
       </c>
       <c r="K61" t="n">
         <v>20.68</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-3386.625571532987</v>
+        <v>-1456.271687654123</v>
       </c>
       <c r="K62" t="n">
         <v>19.91</v>
@@ -3958,7 +3958,7 @@
         <v>142.84</v>
       </c>
       <c r="D63" t="n">
-        <v>47.8</v>
+        <v>43.5</v>
       </c>
       <c r="E63" t="n">
         <v>0.4</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-2593.857258653993</v>
+        <v>-172.7608638140714</v>
       </c>
       <c r="K63" t="n">
         <v>19.40001</v>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-1490.936375083137</v>
+        <v>-229.4327897416579</v>
       </c>
       <c r="K64" t="n">
         <v>16.15</v>
@@ -4088,7 +4088,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>-2954.139438685334</v>
+        <v>-1732.850115855893</v>
       </c>
       <c r="K65" t="n">
         <v>17.299999</v>
@@ -4144,7 +4144,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>-2501.5283282823</v>
+        <v>-989.8683699931134</v>
       </c>
       <c r="K66" t="n">
         <v>18.1</v>
@@ -4188,19 +4188,19 @@
         <v>0.4</v>
       </c>
       <c r="F67" t="n">
-        <v>47.8</v>
+        <v>12.8</v>
       </c>
       <c r="G67" t="n">
         <v>14.42199999999997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I67" t="n">
         <v>12.00999999999999</v>
       </c>
       <c r="J67" t="n">
-        <v>-1803.491425559934</v>
+        <v>-791.9402635028638</v>
       </c>
       <c r="K67" t="n">
         <v>22.85</v>
@@ -4244,19 +4244,19 @@
         <v>0.4</v>
       </c>
       <c r="F68" t="n">
-        <v>47.8</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
         <v>14.42199999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="I68" t="n">
         <v>11.81999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>-1013.191743423585</v>
+        <v>-770.4774908400002</v>
       </c>
       <c r="K68" t="n">
         <v>25.68</v>
@@ -4300,19 +4300,19 @@
         <v>0.4</v>
       </c>
       <c r="F69" t="n">
-        <v>15.9</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>14.42199999999997</v>
       </c>
       <c r="H69" t="n">
-        <v>31.9</v>
+        <v>47.8</v>
       </c>
       <c r="I69" t="n">
         <v>11.81999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>-793.9276276199987</v>
+        <v>-339.9497598182605</v>
       </c>
       <c r="K69" t="n">
         <v>26.49</v>
@@ -4368,7 +4368,7 @@
         <v>11.81999999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>-563.399378679957</v>
+        <v>-338.1229859309765</v>
       </c>
       <c r="K70" t="n">
         <v>25.790001</v>
@@ -4424,7 +4424,7 @@
         <v>12.53099999999998</v>
       </c>
       <c r="J71" t="n">
-        <v>-354.9964614049707</v>
+        <v>-354.9964614049716</v>
       </c>
       <c r="K71" t="n">
         <v>25.969999</v>
@@ -4536,7 +4536,7 @@
         <v>12.53099999999998</v>
       </c>
       <c r="J73" t="n">
-        <v>-385.1894532556752</v>
+        <v>-385.1893563662484</v>
       </c>
       <c r="K73" t="n">
         <v>22.32</v>
@@ -4580,19 +4580,19 @@
         <v>0.26</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="G74" t="n">
-        <v>17.714</v>
+        <v>14.25200000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>47.8</v>
+        <v>36</v>
       </c>
       <c r="I74" t="n">
         <v>10.55099999999999</v>
       </c>
       <c r="J74" t="n">
-        <v>-290.3552450121589</v>
+        <v>174.5965080252015</v>
       </c>
       <c r="K74" t="n">
         <v>28.1</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>204.4974613992638</v>
+        <v>207.4303863327134</v>
       </c>
       <c r="K75" t="n">
         <v>24.450001</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>195.2366069052483</v>
+        <v>2056.951513679463</v>
       </c>
       <c r="K76" t="n">
         <v>23.25</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>121.6907472441591</v>
+        <v>1986.571513935651</v>
       </c>
       <c r="K77" t="n">
         <v>22.280001</v>
@@ -4798,7 +4798,7 @@
         <v>138.1</v>
       </c>
       <c r="D78" t="n">
-        <v>6.4</v>
+        <v>47.8</v>
       </c>
       <c r="E78" t="n">
         <v>0.26</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-151.9204827427809</v>
+        <v>1972.373196350383</v>
       </c>
       <c r="K78" t="n">
         <v>22.200001</v>
@@ -4872,7 +4872,7 @@
         <v>14.63099999999991</v>
       </c>
       <c r="J79" t="n">
-        <v>-705.0083271477379</v>
+        <v>1101.94809762997</v>
       </c>
       <c r="K79" t="n">
         <v>23.7</v>
@@ -4928,7 +4928,7 @@
         <v>14.49399999999997</v>
       </c>
       <c r="J80" t="n">
-        <v>-1700.822040504299</v>
+        <v>1311.482888031549</v>
       </c>
       <c r="K80" t="n">
         <v>30.59999</v>
@@ -4972,19 +4972,19 @@
         <v>0.4</v>
       </c>
       <c r="F81" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>17.49799999999999</v>
+        <v>17.51</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I81" t="n">
         <v>13.851</v>
       </c>
       <c r="J81" t="n">
-        <v>-3160.194121387967</v>
+        <v>-671.6092554447501</v>
       </c>
       <c r="K81" t="n">
         <v>35.330002</v>
@@ -5028,19 +5028,19 @@
         <v>0.4</v>
       </c>
       <c r="F82" t="n">
-        <v>47.8</v>
+        <v>14.1</v>
       </c>
       <c r="G82" t="n">
         <v>17.49799999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="I82" t="n">
         <v>13.851</v>
       </c>
       <c r="J82" t="n">
-        <v>-4468.83496749343</v>
+        <v>-902.3259725299608</v>
       </c>
       <c r="K82" t="n">
         <v>37.799999</v>
@@ -5078,7 +5078,7 @@
         <v>138.1</v>
       </c>
       <c r="D83" t="n">
-        <v>47.8</v>
+        <v>45.5</v>
       </c>
       <c r="E83" t="n">
         <v>0.4</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-4346.965955435636</v>
+        <v>-168.528079752139</v>
       </c>
       <c r="K83" t="n">
         <v>36.80002</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-4592.94925470497</v>
+        <v>-233.6772108228321</v>
       </c>
       <c r="K84" t="n">
         <v>34.560001</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-4683.187946778964</v>
+        <v>-319.846081835106</v>
       </c>
       <c r="K85" t="n">
         <v>33.330002</v>
@@ -5246,7 +5246,7 @@
         <v>138.1</v>
       </c>
       <c r="D86" t="n">
-        <v>47.8</v>
+        <v>29.2</v>
       </c>
       <c r="E86" t="n">
         <v>0.4</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-4409.541290882439</v>
+        <v>-161.9588987913336</v>
       </c>
       <c r="K86" t="n">
         <v>31.219999</v>
@@ -5302,7 +5302,7 @@
         <v>138.1</v>
       </c>
       <c r="D87" t="n">
-        <v>47.8</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>0.4</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-3867.979763717564</v>
+        <v>-167.0303387404816</v>
       </c>
       <c r="K87" t="n">
         <v>28.4</v>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>-3238.006911491952</v>
+        <v>-205.5633728042606</v>
       </c>
       <c r="K88" t="n">
         <v>26.889999</v>
@@ -5432,7 +5432,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="J89" t="n">
-        <v>-3151.551865779888</v>
+        <v>187.6948880425281</v>
       </c>
       <c r="K89" t="n">
         <v>25.290001</v>
@@ -5488,7 +5488,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>-2429.241249244841</v>
+        <v>693.5984773139776</v>
       </c>
       <c r="K90" t="n">
         <v>24.7</v>
@@ -5532,19 +5532,19 @@
         <v>0.4</v>
       </c>
       <c r="F91" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>14.416</v>
+        <v>14.423</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I91" t="n">
         <v>12.00999999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>-1863.328305960229</v>
+        <v>-752.3303264694977</v>
       </c>
       <c r="K91" t="n">
         <v>28.639999</v>
@@ -5588,19 +5588,19 @@
         <v>0.4</v>
       </c>
       <c r="F92" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>14.416</v>
+        <v>15.56</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I92" t="n">
         <v>11.81999999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>-1093.60512638675</v>
+        <v>-452.5945726934661</v>
       </c>
       <c r="K92" t="n">
         <v>32.610001</v>
@@ -5644,19 +5644,19 @@
         <v>0.4</v>
       </c>
       <c r="F93" t="n">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>14.416</v>
+        <v>15.56</v>
       </c>
       <c r="H93" t="n">
-        <v>23.9</v>
+        <v>47.8</v>
       </c>
       <c r="I93" t="n">
         <v>11.81999999999999</v>
       </c>
       <c r="J93" t="n">
-        <v>-803.6676145400018</v>
+        <v>-320.3656636286262</v>
       </c>
       <c r="K93" t="n">
         <v>34</v>
@@ -5712,7 +5712,7 @@
         <v>11.81999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>-643.3963270649741</v>
+        <v>-321.6536344444372</v>
       </c>
       <c r="K94" t="n">
         <v>34.220001</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>15.409</v>
+        <v>14.423</v>
       </c>
       <c r="H95" t="n">
         <v>47.8</v>
@@ -5768,7 +5768,7 @@
         <v>12.53199999999998</v>
       </c>
       <c r="J95" t="n">
-        <v>-347.206353973301</v>
+        <v>-347.2063539733012</v>
       </c>
       <c r="K95" t="n">
         <v>34.130001</v>
@@ -5824,7 +5824,7 @@
         <v>12.53199999999998</v>
       </c>
       <c r="J96" t="n">
-        <v>-353.6200225359804</v>
+        <v>-353.6200225359815</v>
       </c>
       <c r="K96" t="n">
         <v>35</v>
@@ -5880,7 +5880,7 @@
         <v>12.53199999999998</v>
       </c>
       <c r="J97" t="n">
-        <v>-380.623273898324</v>
+        <v>-380.6231338604348</v>
       </c>
       <c r="K97" t="n">
         <v>31.5</v>
@@ -5924,19 +5924,19 @@
         <v>0.26</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G98" t="n">
-        <v>17.714</v>
+        <v>14.24000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>10.55099999999999</v>
       </c>
       <c r="J98" t="n">
-        <v>-320.4872678002743</v>
+        <v>1543.298050310899</v>
       </c>
       <c r="K98" t="n">
         <v>26.59999</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>196.9549921244278</v>
+        <v>197.5311552983567</v>
       </c>
       <c r="K99" t="n">
         <v>22.75</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>187.1270463430507</v>
+        <v>2041.908084018362</v>
       </c>
       <c r="K100" t="n">
         <v>21.7</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>123.2702532194766</v>
+        <v>1989.578239891375</v>
       </c>
       <c r="K101" t="n">
         <v>19.43</v>
@@ -6142,7 +6142,7 @@
         <v>127.3</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>47.8</v>
       </c>
       <c r="E102" t="n">
         <v>0.26</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>-127.1614918236546</v>
+        <v>1954.09951793141</v>
       </c>
       <c r="K102" t="n">
         <v>18.959999</v>
@@ -6204,19 +6204,19 @@
         <v>0.26</v>
       </c>
       <c r="F103" t="n">
-        <v>34.5</v>
+        <v>47.8</v>
       </c>
       <c r="G103" t="n">
         <v>18.06999999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>14.63</v>
       </c>
       <c r="J103" t="n">
-        <v>-1014.984108246576</v>
+        <v>1116.374100960975</v>
       </c>
       <c r="K103" t="n">
         <v>18.959999</v>
@@ -6260,19 +6260,19 @@
         <v>0.4</v>
       </c>
       <c r="F104" t="n">
-        <v>47.8</v>
+        <v>2.8</v>
       </c>
       <c r="G104" t="n">
         <v>18.06999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I104" t="n">
         <v>14.49399999999997</v>
       </c>
       <c r="J104" t="n">
-        <v>-1681.846191754842</v>
+        <v>-911.578979271951</v>
       </c>
       <c r="K104" t="n">
         <v>21.559999</v>
@@ -6316,19 +6316,19 @@
         <v>0.4</v>
       </c>
       <c r="F105" t="n">
-        <v>47.8</v>
+        <v>23.5</v>
       </c>
       <c r="G105" t="n">
         <v>17.49799999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="I105" t="n">
         <v>13.851</v>
       </c>
       <c r="J105" t="n">
-        <v>-2971.691754707986</v>
+        <v>-951.7181001800022</v>
       </c>
       <c r="K105" t="n">
         <v>26.59999</v>
@@ -6372,19 +6372,19 @@
         <v>0.4</v>
       </c>
       <c r="F106" t="n">
-        <v>47.8</v>
+        <v>46.2</v>
       </c>
       <c r="G106" t="n">
         <v>17.49799999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I106" t="n">
         <v>13.851</v>
       </c>
       <c r="J106" t="n">
-        <v>-4097.412708043099</v>
+        <v>-1023.843677319999</v>
       </c>
       <c r="K106" t="n">
         <v>30</v>
@@ -6422,7 +6422,7 @@
         <v>127.3</v>
       </c>
       <c r="D107" t="n">
-        <v>47.8</v>
+        <v>40.2</v>
       </c>
       <c r="E107" t="n">
         <v>0.4</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-3911.402717370526</v>
+        <v>-173.2258352363623</v>
       </c>
       <c r="K107" t="n">
         <v>28.959999</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>-4280.47893020785</v>
+        <v>-691.3640947938173</v>
       </c>
       <c r="K108" t="n">
         <v>26.59999</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-4335.233223476765</v>
+        <v>-770.2637065464413</v>
       </c>
       <c r="K109" t="n">
         <v>25.51</v>
@@ -6590,7 +6590,7 @@
         <v>127.3</v>
       </c>
       <c r="D110" t="n">
-        <v>47.8</v>
+        <v>28</v>
       </c>
       <c r="E110" t="n">
         <v>0.4</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-4296.699419602831</v>
+        <v>-168.1286819458484</v>
       </c>
       <c r="K110" t="n">
         <v>23.889999</v>
@@ -6646,7 +6646,7 @@
         <v>127.3</v>
       </c>
       <c r="D111" t="n">
-        <v>47.8</v>
+        <v>17.8</v>
       </c>
       <c r="E111" t="n">
         <v>0.4</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-3779.517234757684</v>
+        <v>-163.5639999196581</v>
       </c>
       <c r="K111" t="n">
         <v>21.99</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-3052.691925086682</v>
+        <v>761.5209522212853</v>
       </c>
       <c r="K112" t="n">
         <v>20.5</v>
@@ -6776,7 +6776,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="J113" t="n">
-        <v>-3121.001924037033</v>
+        <v>-191.9089588266631</v>
       </c>
       <c r="K113" t="n">
         <v>19.1</v>
@@ -6832,7 +6832,7 @@
         <v>12.00999999999999</v>
       </c>
       <c r="J114" t="n">
-        <v>-2474.066020818333</v>
+        <v>865.2812804157597</v>
       </c>
       <c r="K114" t="n">
         <v>19.280001</v>
@@ -6876,19 +6876,19 @@
         <v>0.4</v>
       </c>
       <c r="F115" t="n">
-        <v>47.8</v>
+        <v>2.5</v>
       </c>
       <c r="G115" t="n">
         <v>14.416</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>45.3</v>
       </c>
       <c r="I115" t="n">
         <v>12.00999999999999</v>
       </c>
       <c r="J115" t="n">
-        <v>-1810.720299295351</v>
+        <v>-792.1768958121379</v>
       </c>
       <c r="K115" t="n">
         <v>23.7</v>
@@ -6932,19 +6932,19 @@
         <v>0.4</v>
       </c>
       <c r="F116" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>14.416</v>
+        <v>15.56</v>
       </c>
       <c r="H116" t="n">
-        <v>1.7</v>
+        <v>47.8</v>
       </c>
       <c r="I116" t="n">
         <v>11.81999999999999</v>
       </c>
       <c r="J116" t="n">
-        <v>-854.0842482099995</v>
+        <v>-539.8472496115385</v>
       </c>
       <c r="K116" t="n">
         <v>26.8</v>
@@ -6988,19 +6988,19 @@
         <v>0.4</v>
       </c>
       <c r="F117" t="n">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>14.416</v>
+        <v>15.56</v>
       </c>
       <c r="H117" t="n">
-        <v>34.5</v>
+        <v>47.8</v>
       </c>
       <c r="I117" t="n">
         <v>11.81999999999999</v>
       </c>
       <c r="J117" t="n">
-        <v>-805.5167994900005</v>
+        <v>-332.9896617210674</v>
       </c>
       <c r="K117" t="n">
         <v>30.65</v>
@@ -7056,7 +7056,7 @@
         <v>11.81999999999999</v>
       </c>
       <c r="J118" t="n">
-        <v>-577.4622583212458</v>
+        <v>-336.4008206389005</v>
       </c>
       <c r="K118" t="n">
         <v>30.17</v>
@@ -7112,7 +7112,7 @@
         <v>12.53100000000001</v>
       </c>
       <c r="J119" t="n">
-        <v>-361.231879951527</v>
+        <v>-361.2318827110739</v>
       </c>
       <c r="K119" t="n">
         <v>27.9</v>
@@ -7168,7 +7168,7 @@
         <v>12.53100000000001</v>
       </c>
       <c r="J120" t="n">
-        <v>-367.850834113485</v>
+        <v>-367.8508368309123</v>
       </c>
       <c r="K120" t="n">
         <v>26.51</v>
@@ -7224,7 +7224,7 @@
         <v>12.53100000000001</v>
       </c>
       <c r="J121" t="n">
-        <v>-394.7006266204398</v>
+        <v>-394.7005094771829</v>
       </c>
       <c r="K121" t="n">
         <v>23.809999</v>
@@ -7268,19 +7268,19 @@
         <v>0.26</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G122" t="n">
-        <v>17.714</v>
+        <v>14.33699999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>10.551</v>
       </c>
       <c r="J122" t="n">
-        <v>-295.9887223910655</v>
+        <v>1418.879037475541</v>
       </c>
       <c r="K122" t="n">
         <v>19.42</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>185.6412660438802</v>
+        <v>1981.829947201984</v>
       </c>
       <c r="K123" t="n">
         <v>18.879999</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>177.6834510223457</v>
+        <v>1930.632095016002</v>
       </c>
       <c r="K124" t="n">
         <v>18.219999</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>833.0357574326931</v>
+        <v>1825.299060444593</v>
       </c>
       <c r="K125" t="n">
         <v>19.7</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1190.619083620324</v>
+        <v>1796.639934439286</v>
       </c>
       <c r="K126" t="n">
         <v>19.43</v>
@@ -7560,7 +7560,7 @@
         <v>14.59199999999993</v>
       </c>
       <c r="J127" t="n">
-        <v>-804.0718787221215</v>
+        <v>853.0584134047861</v>
       </c>
       <c r="K127" t="n">
         <v>22.360001</v>
@@ -7616,7 +7616,7 @@
         <v>14.49000000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>-1626.116993621061</v>
+        <v>776.4300139055579</v>
       </c>
       <c r="K128" t="n">
         <v>27.92</v>
@@ -7660,19 +7660,19 @@
         <v>0.4</v>
       </c>
       <c r="F129" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>17.49799999999999</v>
+        <v>17.508</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I129" t="n">
         <v>13.84699999999992</v>
       </c>
       <c r="J129" t="n">
-        <v>-2000.454917054409</v>
+        <v>-718.3642993503212</v>
       </c>
       <c r="K129" t="n">
         <v>37.200001</v>
@@ -7716,19 +7716,19 @@
         <v>0.4</v>
       </c>
       <c r="F130" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>17.49799999999999</v>
+        <v>21.418</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="I130" t="n">
         <v>13.84699999999992</v>
       </c>
       <c r="J130" t="n">
-        <v>-3130.536300359298</v>
+        <v>-731.6691264008376</v>
       </c>
       <c r="K130" t="n">
         <v>30.92</v>
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>-3188.538871622618</v>
+        <v>-751.8135431045911</v>
       </c>
       <c r="K131" t="n">
         <v>24.4</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>-3916.788013358865</v>
+        <v>-1678.360988773141</v>
       </c>
       <c r="K132" t="n">
         <v>22.35</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-3639.823779371086</v>
+        <v>-53.89859795317592</v>
       </c>
       <c r="K133" t="n">
         <v>20.68</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-3534.176722269639</v>
+        <v>-1240.690446286472</v>
       </c>
       <c r="K134" t="n">
         <v>19.91</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>-2967.348064344758</v>
+        <v>-1301.418789845752</v>
       </c>
       <c r="K135" t="n">
         <v>19.40001</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>-2408.084167686701</v>
+        <v>886.2743120632139</v>
       </c>
       <c r="K136" t="n">
         <v>16.15</v>
@@ -8120,7 +8120,7 @@
         <v>12.01</v>
       </c>
       <c r="J137" t="n">
-        <v>-2615.839918578854</v>
+        <v>-950.6659511609624</v>
       </c>
       <c r="K137" t="n">
         <v>17.299999</v>
@@ -8176,7 +8176,7 @@
         <v>12.01</v>
       </c>
       <c r="J138" t="n">
-        <v>-2183.396736807244</v>
+        <v>170.0416464118579</v>
       </c>
       <c r="K138" t="n">
         <v>18.1</v>
@@ -8229,10 +8229,10 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>12.006</v>
+        <v>12.01</v>
       </c>
       <c r="J139" t="n">
-        <v>-1111.329526893762</v>
+        <v>66.19281064908392</v>
       </c>
       <c r="K139" t="n">
         <v>22.85</v>
@@ -8276,19 +8276,19 @@
         <v>0.4</v>
       </c>
       <c r="F140" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>14.416</v>
+        <v>15.56</v>
       </c>
       <c r="H140" t="n">
-        <v>18.6</v>
+        <v>47.8</v>
       </c>
       <c r="I140" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J140" t="n">
-        <v>-794.4933524538593</v>
+        <v>-490.1708313316458</v>
       </c>
       <c r="K140" t="n">
         <v>25.68</v>
@@ -8332,19 +8332,19 @@
         <v>0.4</v>
       </c>
       <c r="F141" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>14.416</v>
+        <v>14.422</v>
       </c>
       <c r="H141" t="n">
-        <v>38.3</v>
+        <v>47.8</v>
       </c>
       <c r="I141" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J141" t="n">
-        <v>-739.4492160599997</v>
+        <v>-306.2626533355057</v>
       </c>
       <c r="K141" t="n">
         <v>26.49</v>
@@ -8400,7 +8400,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J142" t="n">
-        <v>-507.3776913472468</v>
+        <v>-317.9408360124267</v>
       </c>
       <c r="K142" t="n">
         <v>25.790001</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>14.422</v>
+        <v>15.409</v>
       </c>
       <c r="H143" t="n">
         <v>47.8</v>
@@ -8456,7 +8456,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J143" t="n">
-        <v>-342.652593939478</v>
+        <v>-342.6524702882056</v>
       </c>
       <c r="K143" t="n">
         <v>25.969999</v>
@@ -8512,7 +8512,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J144" t="n">
-        <v>-344.0071253339213</v>
+        <v>-344.0069833723119</v>
       </c>
       <c r="K144" t="n">
         <v>24.16</v>
@@ -8568,7 +8568,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J145" t="n">
-        <v>-370.8974551950533</v>
+        <v>-370.8968321705086</v>
       </c>
       <c r="K145" t="n">
         <v>22.32</v>
@@ -8624,7 +8624,7 @@
         <v>10.551</v>
       </c>
       <c r="J146" t="n">
-        <v>1328.206201673646</v>
+        <v>1328.206943519633</v>
       </c>
       <c r="K146" t="n">
         <v>28.1</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>188.4207061923768</v>
+        <v>2020.957857136062</v>
       </c>
       <c r="K147" t="n">
         <v>24.450001</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>184.6415952647075</v>
+        <v>1996.683224279456</v>
       </c>
       <c r="K148" t="n">
         <v>23.25</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>1715.315635561581</v>
+        <v>1769.296325669204</v>
       </c>
       <c r="K149" t="n">
         <v>22.280001</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1188.911487298338</v>
+        <v>1769.367317118708</v>
       </c>
       <c r="K150" t="n">
         <v>22.200001</v>
@@ -8904,7 +8904,7 @@
         <v>14.59199999999993</v>
       </c>
       <c r="J151" t="n">
-        <v>-459.5108551642024</v>
+        <v>763.1372554621267</v>
       </c>
       <c r="K151" t="n">
         <v>23.7</v>
@@ -8960,7 +8960,7 @@
         <v>14.49000000000001</v>
       </c>
       <c r="J152" t="n">
-        <v>-1057.382622526582</v>
+        <v>-180.3196707856006</v>
       </c>
       <c r="K152" t="n">
         <v>30.59999</v>
@@ -9004,19 +9004,19 @@
         <v>0.4</v>
       </c>
       <c r="F153" t="n">
-        <v>47.8</v>
+        <v>28.5</v>
       </c>
       <c r="G153" t="n">
         <v>16</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="I153" t="n">
         <v>13.84699999999992</v>
       </c>
       <c r="J153" t="n">
-        <v>-2257.554897570688</v>
+        <v>-950.098146737138</v>
       </c>
       <c r="K153" t="n">
         <v>35.330002</v>
@@ -9060,19 +9060,19 @@
         <v>0.4</v>
       </c>
       <c r="F154" t="n">
-        <v>47.8</v>
+        <v>43.90000000000001</v>
       </c>
       <c r="G154" t="n">
         <v>16</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I154" t="n">
         <v>13.84699999999992</v>
       </c>
       <c r="J154" t="n">
-        <v>-2282.203698462003</v>
+        <v>-1026.275210853013</v>
       </c>
       <c r="K154" t="n">
         <v>37.799999</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>-1932.017976832089</v>
+        <v>-582.1772035164345</v>
       </c>
       <c r="K155" t="n">
         <v>36.80002</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>-2575.731897443814</v>
+        <v>-2676.927530046559</v>
       </c>
       <c r="K156" t="n">
         <v>34.560001</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-1388.37895829901</v>
+        <v>-890.3946227432968</v>
       </c>
       <c r="K157" t="n">
         <v>33.330002</v>
@@ -9278,7 +9278,7 @@
         <v>136.21</v>
       </c>
       <c r="D158" t="n">
-        <v>33.3</v>
+        <v>47.8</v>
       </c>
       <c r="E158" t="n">
         <v>0.4</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-165.0813973557715</v>
+        <v>-2447.088383004075</v>
       </c>
       <c r="K158" t="n">
         <v>31.219999</v>
@@ -9352,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-741.558406869394</v>
+        <v>-1864.779453548311</v>
       </c>
       <c r="K159" t="n">
         <v>28.4</v>
@@ -9390,7 +9390,7 @@
         <v>136.21</v>
       </c>
       <c r="D160" t="n">
-        <v>46</v>
+        <v>47.8</v>
       </c>
       <c r="E160" t="n">
         <v>0.4</v>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>-170.1586921797061</v>
+        <v>-1440.970283144741</v>
       </c>
       <c r="K160" t="n">
         <v>26.889999</v>
@@ -9452,19 +9452,19 @@
         <v>0.4</v>
       </c>
       <c r="F161" t="n">
-        <v>26.5</v>
+        <v>47.8</v>
       </c>
       <c r="G161" t="n">
         <v>9.762</v>
       </c>
       <c r="H161" t="n">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>11.959</v>
+        <v>12.009</v>
       </c>
       <c r="J161" t="n">
-        <v>-768.6661043477698</v>
+        <v>-1843.684653603977</v>
       </c>
       <c r="K161" t="n">
         <v>25.290001</v>
@@ -9508,19 +9508,19 @@
         <v>0.4</v>
       </c>
       <c r="F162" t="n">
-        <v>34.1</v>
+        <v>47.8</v>
       </c>
       <c r="G162" t="n">
         <v>9.762</v>
       </c>
       <c r="H162" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>11.959</v>
+        <v>12.009</v>
       </c>
       <c r="J162" t="n">
-        <v>-781.9247356503275</v>
+        <v>-1293.473355656193</v>
       </c>
       <c r="K162" t="n">
         <v>24.7</v>
@@ -9564,19 +9564,19 @@
         <v>0.4</v>
       </c>
       <c r="F163" t="n">
-        <v>26.8</v>
+        <v>32.1</v>
       </c>
       <c r="G163" t="n">
         <v>9.762</v>
       </c>
       <c r="H163" t="n">
-        <v>21</v>
+        <v>15.7</v>
       </c>
       <c r="I163" t="n">
         <v>11.959</v>
       </c>
       <c r="J163" t="n">
-        <v>-769.3764567856247</v>
+        <v>-778.5926412472518</v>
       </c>
       <c r="K163" t="n">
         <v>28.639999</v>
@@ -9620,19 +9620,19 @@
         <v>0.4</v>
       </c>
       <c r="F164" t="n">
-        <v>20.4</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>10.43299999999999</v>
       </c>
       <c r="H164" t="n">
-        <v>27.4</v>
+        <v>46.8</v>
       </c>
       <c r="I164" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J164" t="n">
-        <v>-752.0769722200012</v>
+        <v>-696.2833617593265</v>
       </c>
       <c r="K164" t="n">
         <v>32.610001</v>
@@ -9676,19 +9676,19 @@
         <v>0.4</v>
       </c>
       <c r="F165" t="n">
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>10.43299999999999</v>
+        <v>15.56</v>
       </c>
       <c r="H165" t="n">
-        <v>29.1</v>
+        <v>47.8</v>
       </c>
       <c r="I165" t="n">
         <v>11.81599999999997</v>
       </c>
       <c r="J165" t="n">
-        <v>-749.1234617011446</v>
+        <v>-295.2079019621104</v>
       </c>
       <c r="K165" t="n">
         <v>34</v>
@@ -9744,7 +9744,7 @@
         <v>11.81599999999997</v>
       </c>
       <c r="J166" t="n">
-        <v>-618.1299582680518</v>
+        <v>-304.7304812306868</v>
       </c>
       <c r="K166" t="n">
         <v>34.220001</v>
@@ -9800,7 +9800,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J167" t="n">
-        <v>-339.1253376515625</v>
+        <v>-339.1252947608435</v>
       </c>
       <c r="K167" t="n">
         <v>34.130001</v>
@@ -9856,7 +9856,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J168" t="n">
-        <v>-332.1029594587052</v>
+        <v>-332.1029592907582</v>
       </c>
       <c r="K168" t="n">
         <v>35</v>
@@ -9912,7 +9912,7 @@
         <v>12.39699999999999</v>
       </c>
       <c r="J169" t="n">
-        <v>-370.0518955305157</v>
+        <v>-370.051699560232</v>
       </c>
       <c r="K169" t="n">
         <v>31.5</v>
